--- a/relatorio_vendas_formatado.xlsx
+++ b/relatorio_vendas_formatado.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planinha 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/relatorio_vendas_formatado.xlsx
+++ b/relatorio_vendas_formatado.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,29 @@
       </c>
       <c r="E3" s="3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 08:22:14</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Pedro de Moraes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
